--- a/Excel/SaveToExcel.xlsx
+++ b/Excel/SaveToExcel.xlsx
@@ -7,30 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="TestExecutionSummary" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>MainURL</t>
-  </si>
-  <si>
-    <t>SubURLs</t>
-  </si>
-  <si>
-    <t>ExecutionStatus</t>
-  </si>
-  <si>
-    <t>ActualResult</t>
-  </si>
-  <si>
-    <t>ExpectedResult</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,39 +350,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="63.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>